--- a/MAC123-255-z.xlsx
+++ b/MAC123-255-z.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9225" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="อดีต (31-1-2548)" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="630">
   <si>
     <t>IP Address</t>
   </si>
@@ -1667,6 +1667,255 @@
   </si>
   <si>
     <t>OPAC_0912</t>
+  </si>
+  <si>
+    <t>86:C5:30:5C:3A:F2</t>
+  </si>
+  <si>
+    <t>78:2B:CB:0A:3F:5C</t>
+  </si>
+  <si>
+    <t>OMEGA</t>
+  </si>
+  <si>
+    <t>DA:B3:27:6E:A6:58</t>
+  </si>
+  <si>
+    <t>00:25:64:FD:28:EB</t>
+  </si>
+  <si>
+    <t>00:25:64:FD:3E:CF</t>
+  </si>
+  <si>
+    <t>D4:BE:D9:B1:99:55</t>
+  </si>
+  <si>
+    <t>52:EF:E6:B2:3F:56</t>
+  </si>
+  <si>
+    <t>78:2B:CB:1E:74:A2</t>
+  </si>
+  <si>
+    <t>DD18L82S</t>
+  </si>
+  <si>
+    <t>1A:20:7C:00:66:D0</t>
+  </si>
+  <si>
+    <t>36:31:61:31:35:32</t>
+  </si>
+  <si>
+    <t>00:0C:76:EA:C6:D7</t>
+  </si>
+  <si>
+    <t>CAR-VSCAN</t>
+  </si>
+  <si>
+    <t>MICRO-STAR INTERNATIONAL CO., LTD.</t>
+  </si>
+  <si>
+    <t>96:09:CF:E1:1F:C4</t>
+  </si>
+  <si>
+    <t>INFOMASERV</t>
+  </si>
+  <si>
+    <t>00:0C:76:EA:C7:C7</t>
+  </si>
+  <si>
+    <t>90:2B:34:75:A4:5B</t>
+  </si>
+  <si>
+    <t>CUBR-PC</t>
+  </si>
+  <si>
+    <t>GIGA-BYTE TECHNOLOGY CO.,LTD.</t>
+  </si>
+  <si>
+    <t>50:E5:49:14:FC:41</t>
+  </si>
+  <si>
+    <t>CUSC</t>
+  </si>
+  <si>
+    <t>00:23:24:24:E1:82</t>
+  </si>
+  <si>
+    <t>G-PRO COMPUTER</t>
+  </si>
+  <si>
+    <t>00:1D:92:25:16:54</t>
+  </si>
+  <si>
+    <t>MICRO-STAR INT'L CO.,LTD.</t>
+  </si>
+  <si>
+    <t>78:2B:CB:26:8B:EB</t>
+  </si>
+  <si>
+    <t>F0:1F:AF:EA:22:03</t>
+  </si>
+  <si>
+    <t>Dell Inc PCBA Test</t>
+  </si>
+  <si>
+    <t>F0:1F:AF:EA:20:EB</t>
+  </si>
+  <si>
+    <t>EC:B1:D7:84:46:68</t>
+  </si>
+  <si>
+    <t>90:B1:1C:2E:EA:07</t>
+  </si>
+  <si>
+    <t>36:33:65:35:63:36</t>
+  </si>
+  <si>
+    <t>92:02:94:B4:9A:75</t>
+  </si>
+  <si>
+    <t>72:F9:34:7F:48:36</t>
+  </si>
+  <si>
+    <t>08:00:37:80:0E:16</t>
+  </si>
+  <si>
+    <t>FX-800E16</t>
+  </si>
+  <si>
+    <t>FUJI-XEROX CO. LTD.</t>
+  </si>
+  <si>
+    <t>F4:CE:46:49:7F:87</t>
+  </si>
+  <si>
+    <t>NPI497F87</t>
+  </si>
+  <si>
+    <t>00:11:0A:C3:27:7D</t>
+  </si>
+  <si>
+    <t>NPIC3277D</t>
+  </si>
+  <si>
+    <t>hp color laserJet 5550 (Hewlett-Packard Company)</t>
+  </si>
+  <si>
+    <t>98:90:96:BC:32:97</t>
+  </si>
+  <si>
+    <t>TIC581546</t>
+  </si>
+  <si>
+    <t>hp color laserJet 2840 (Hewlett-Packard Company)</t>
+  </si>
+  <si>
+    <t>00:80:77:91:6B:D6</t>
+  </si>
+  <si>
+    <t>BRN_916BD6</t>
+  </si>
+  <si>
+    <t>MFC-8860DN (BROTHER INDUSTRIES, LTD.)</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:3F:C6</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:43:4D</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:45:F3</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:45:ED</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:43:69</t>
+  </si>
+  <si>
+    <t>00:1D:50:00:3F:C7</t>
+  </si>
+  <si>
+    <t>B4:B5:2F:F2:A9:1C</t>
+  </si>
+  <si>
+    <t>NPIF2A91C</t>
+  </si>
+  <si>
+    <t>hp LaserJet p3010 (Hewlett Packard)</t>
+  </si>
+  <si>
+    <t>08:00:37:48:E3:AF</t>
+  </si>
+  <si>
+    <t>FX48E3AF</t>
+  </si>
+  <si>
+    <t>FUJI-XEROX DocuPrint C3210</t>
+  </si>
+  <si>
+    <t>00:26:B9:2B:D3:B9</t>
+  </si>
+  <si>
+    <t>VDO2</t>
+  </si>
+  <si>
+    <t>08:7D:21:02:A3:20</t>
+  </si>
+  <si>
+    <t>Altasec technology corporation</t>
+  </si>
+  <si>
+    <t>36:66:31:37:36:66</t>
+  </si>
+  <si>
+    <t>36:36:66:39:35:62</t>
+  </si>
+  <si>
+    <t>62:35:36:39:31:61</t>
+  </si>
+  <si>
+    <t>88:51:FB:3F:28:FA</t>
+  </si>
+  <si>
+    <t>WORKGROUP</t>
+  </si>
+  <si>
+    <t>Hewlett Packard</t>
+  </si>
+  <si>
+    <t>62:37:61:62:32:64</t>
+  </si>
+  <si>
+    <t>00:1A:4B:31:78:E0</t>
+  </si>
+  <si>
+    <t>NPI3178E0</t>
+  </si>
+  <si>
+    <t>F4:CE:46:49:22:21</t>
+  </si>
+  <si>
+    <t>RSS-P001</t>
+  </si>
+  <si>
+    <t>hp LazerJet 2840 (Hewlett-Packard Company)</t>
+  </si>
+  <si>
+    <t>08:00:37:92:9A:52</t>
+  </si>
+  <si>
+    <t>FX929A52</t>
+  </si>
+  <si>
+    <t>FUJI-XEROX DocuPrint C2200</t>
+  </si>
+  <si>
+    <t>NPI84CC30</t>
+  </si>
+  <si>
+    <t>hp color LaserJet cm2320nf (XEROX CORPORATION)</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1951,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1718,6 +1967,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2000,9 +2250,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
-    </sheetView>
+    <sheetView topLeftCell="A114" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4519,8 +4767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="C127" sqref="A1:E256"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4552,7 +4800,12 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" t="s">
+        <v>547</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4570,19 +4823,43 @@
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -4594,19 +4871,43 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" t="s">
+        <v>453</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" t="s">
+        <v>552</v>
+      </c>
+      <c r="D10" t="s">
+        <v>453</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" t="s">
+        <v>553</v>
+      </c>
+      <c r="D11" t="s">
+        <v>455</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -4624,13 +4925,29 @@
       <c r="A14" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" t="s">
+        <v>554</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="4"/>
+      <c r="B15" t="s">
+        <v>555</v>
+      </c>
+      <c r="C15" t="s">
+        <v>556</v>
+      </c>
+      <c r="D15" t="s">
+        <v>455</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -4638,588 +4955,920 @@
       </c>
       <c r="B16" s="4"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="4"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>557</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>558</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>559</v>
+      </c>
+      <c r="C20" t="s">
+        <v>560</v>
+      </c>
+      <c r="D20" t="s">
+        <v>561</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21" s="4"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>562</v>
+      </c>
+      <c r="C23" t="s">
+        <v>563</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>564</v>
+      </c>
+      <c r="D24" t="s">
+        <v>561</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>29</v>
       </c>
       <c r="B26" s="4"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="4"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>565</v>
+      </c>
+      <c r="C29" t="s">
+        <v>566</v>
+      </c>
+      <c r="D29" t="s">
+        <v>567</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="4"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>568</v>
+      </c>
+      <c r="C30" t="s">
+        <v>569</v>
+      </c>
+      <c r="D30" t="s">
+        <v>567</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>34</v>
       </c>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>570</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" t="s">
+        <v>571</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="4"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>572</v>
+      </c>
+      <c r="D33" t="s">
+        <v>573</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>38</v>
       </c>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>39</v>
       </c>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>40</v>
       </c>
       <c r="B37" s="4"/>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>574</v>
+      </c>
+      <c r="D38" t="s">
+        <v>455</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>575</v>
+      </c>
+      <c r="D39" t="s">
+        <v>576</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>577</v>
+      </c>
+      <c r="D40" t="s">
+        <v>576</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="4"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>578</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>579</v>
+      </c>
+      <c r="D42" t="s">
+        <v>453</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>46</v>
       </c>
       <c r="B43" s="4"/>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>47</v>
       </c>
       <c r="B44" s="4"/>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>48</v>
       </c>
       <c r="B45" s="4"/>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="4"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>580</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>50</v>
       </c>
       <c r="B47" s="4"/>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>51</v>
       </c>
       <c r="B48" s="4"/>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>52</v>
       </c>
       <c r="B49" s="4"/>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>53</v>
       </c>
       <c r="B50" s="4"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>54</v>
       </c>
       <c r="B51" s="4"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="4"/>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>56</v>
       </c>
       <c r="B53" s="4"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>57</v>
       </c>
       <c r="B54" s="4"/>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>58</v>
       </c>
       <c r="B55" s="4"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="4"/>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>581</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>60</v>
       </c>
-      <c r="B57" s="4"/>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>582</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>61</v>
       </c>
       <c r="B58" s="4"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>62</v>
       </c>
       <c r="B59" s="4"/>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>63</v>
       </c>
       <c r="B60" s="4"/>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>64</v>
       </c>
       <c r="B61" s="4"/>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>65</v>
       </c>
       <c r="B62" s="4"/>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>66</v>
       </c>
       <c r="B63" s="4"/>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>67</v>
       </c>
       <c r="B64" s="4"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>583</v>
+      </c>
+      <c r="C65" t="s">
+        <v>584</v>
+      </c>
+      <c r="D65" t="s">
+        <v>585</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>69</v>
       </c>
       <c r="B66" s="4"/>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="4"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>586</v>
+      </c>
+      <c r="C67" t="s">
+        <v>587</v>
+      </c>
+      <c r="D67" t="s">
+        <v>323</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>71</v>
       </c>
-      <c r="B68" s="4"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>588</v>
+      </c>
+      <c r="C68" t="s">
+        <v>589</v>
+      </c>
+      <c r="D68" t="s">
+        <v>590</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>72</v>
       </c>
       <c r="B69" s="4"/>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>73</v>
       </c>
-      <c r="B70" s="4"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>591</v>
+      </c>
+      <c r="C70" t="s">
+        <v>592</v>
+      </c>
+      <c r="D70" t="s">
+        <v>593</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>74</v>
       </c>
-      <c r="B71" s="4"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>328</v>
+      </c>
+      <c r="C71" t="s">
+        <v>329</v>
+      </c>
+      <c r="D71" t="s">
+        <v>320</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="4"/>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>594</v>
+      </c>
+      <c r="C72" t="s">
+        <v>595</v>
+      </c>
+      <c r="D72" t="s">
+        <v>596</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
       <c r="B74" s="4"/>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
       <c r="B75" s="4"/>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>79</v>
       </c>
-      <c r="B76" s="4"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>597</v>
+      </c>
+      <c r="D76" t="s">
+        <v>538</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>80</v>
       </c>
-      <c r="B77" s="4"/>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>598</v>
+      </c>
+      <c r="D77" t="s">
+        <v>538</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>81</v>
       </c>
-      <c r="B78" s="4"/>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>599</v>
+      </c>
+      <c r="D78" t="s">
+        <v>538</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>82</v>
       </c>
-      <c r="B79" s="4"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>600</v>
+      </c>
+      <c r="D79" t="s">
+        <v>538</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>83</v>
       </c>
       <c r="B80" s="4"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="4"/>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B81" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>85</v>
       </c>
-      <c r="B82" s="4"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>602</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>86</v>
       </c>
       <c r="B83" s="4"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>87</v>
       </c>
       <c r="B84" s="4"/>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="4"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>603</v>
+      </c>
+      <c r="C85" t="s">
+        <v>604</v>
+      </c>
+      <c r="D85" t="s">
+        <v>605</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>89</v>
       </c>
-      <c r="B86" s="4"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>606</v>
+      </c>
+      <c r="C86" t="s">
+        <v>607</v>
+      </c>
+      <c r="D86" t="s">
+        <v>608</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>90</v>
       </c>
       <c r="B87" s="4"/>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>91</v>
       </c>
       <c r="B88" s="4"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>92</v>
       </c>
       <c r="B89" s="4"/>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
       <c r="B90" s="4"/>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>94</v>
       </c>
       <c r="B91" s="4"/>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="4"/>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>96</v>
       </c>
       <c r="B93" s="4"/>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>97</v>
       </c>
       <c r="B94" s="4"/>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>98</v>
       </c>
       <c r="B95" s="4"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>99</v>
       </c>
-      <c r="B96" s="4"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>609</v>
+      </c>
+      <c r="C96" t="s">
+        <v>610</v>
+      </c>
+      <c r="D96" t="s">
+        <v>455</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>100</v>
       </c>
-      <c r="B97" s="4"/>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>611</v>
+      </c>
+      <c r="D97" t="s">
+        <v>612</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>101</v>
       </c>
       <c r="B98" s="4"/>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>102</v>
       </c>
       <c r="B99" s="4"/>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>103</v>
       </c>
       <c r="B100" s="4"/>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>104</v>
       </c>
-      <c r="B101" s="4"/>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>613</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>105</v>
       </c>
-      <c r="B102" s="4"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>614</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>106</v>
       </c>
-      <c r="B103" s="4"/>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>615</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>107</v>
       </c>
       <c r="B104" s="4"/>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>108</v>
       </c>
       <c r="B105" s="4"/>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="4"/>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="4"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>616</v>
+      </c>
+      <c r="C107" t="s">
+        <v>617</v>
+      </c>
+      <c r="D107" t="s">
+        <v>618</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>111</v>
       </c>
-      <c r="B108" s="4"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>112</v>
       </c>
       <c r="B109" s="4"/>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>113</v>
       </c>
       <c r="B110" s="4"/>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>114</v>
       </c>
       <c r="B111" s="4"/>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>115</v>
       </c>
-      <c r="B112" s="4"/>
+      <c r="B112" t="s">
+        <v>620</v>
+      </c>
+      <c r="C112" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112" t="s">
+        <v>323</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>116</v>
       </c>
-      <c r="B113" s="4"/>
+      <c r="B113" t="s">
+        <v>622</v>
+      </c>
+      <c r="C113" t="s">
+        <v>623</v>
+      </c>
+      <c r="D113" t="s">
+        <v>624</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -5231,13 +5880,35 @@
       <c r="A115" t="s">
         <v>118</v>
       </c>
-      <c r="B115" s="4"/>
+      <c r="B115" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E115" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>119</v>
       </c>
-      <c r="B116" s="4"/>
+      <c r="B116" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E116" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
@@ -6754,9 +7425,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B32:C32"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6765,7 +7433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+    <sheetView topLeftCell="A111" workbookViewId="0">
       <selection activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
